--- a/Spettrometro/PrismaAngoloMinimo.xlsx
+++ b/Spettrometro/PrismaAngoloMinimo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franc\Desktop\ste scuola\lab 2\Laboratorio_2\Spettrometro\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Francesco\Desktop\Desktop Files\Uni\ANNO2\Laboratorio_2\Spettrometro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B019291-B7C6-444A-971E-9AC2FDE068F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E3D1798-5710-4209-9768-E9D43C02C9A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{50459B39-E05C-4128-B1E1-E29F065A22CC}"/>
+    <workbookView xWindow="-28920" yWindow="3060" windowWidth="29040" windowHeight="15840" xr2:uid="{50459B39-E05C-4128-B1E1-E29F065A22CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>gradi giallo</t>
   </si>
@@ -61,12 +61,15 @@
   <si>
     <t>primi blu</t>
   </si>
+  <si>
+    <t>primi ciano corr</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -440,24 +443,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{618AA819-4EEA-4AEE-8DDE-541ED2C423E7}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="163" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="3" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -482,8 +485,11 @@
       <c r="H1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>48</v>
       </c>
@@ -508,8 +514,11 @@
       <c r="H2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>48</v>
       </c>
@@ -534,8 +543,11 @@
       <c r="H3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>48</v>
       </c>
@@ -560,8 +572,11 @@
       <c r="H4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>48</v>
       </c>
@@ -586,8 +601,11 @@
       <c r="H5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J5">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>48</v>
       </c>
@@ -612,8 +630,11 @@
       <c r="H6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J6">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>48</v>
       </c>
@@ -638,8 +659,11 @@
       <c r="H7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J7">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>48</v>
       </c>
@@ -664,8 +688,11 @@
       <c r="H8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J8">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9">
         <v>48</v>
       </c>
@@ -690,8 +717,11 @@
       <c r="H9">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J9">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10">
         <v>48</v>
       </c>
@@ -716,8 +746,11 @@
       <c r="H10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J10">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11">
         <v>48</v>
       </c>
@@ -741,6 +774,9 @@
       </c>
       <c r="H11">
         <v>0</v>
+      </c>
+      <c r="J11">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -749,20 +785,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="604edc91-9caf-498a-8c1b-060d9360d6cf" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="604edc91-9caf-498a-8c1b-060d9360d6cf" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -904,14 +940,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{65AE9284-B114-484B-B624-47350FD3E1B8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8570D2E-BA21-4DB6-9D30-5D818A27F4B5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -923,6 +951,14 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{65AE9284-B114-484B-B624-47350FD3E1B8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
